--- a/biology/Histoire de la zoologie et de la botanique/Georg_August_Pritzel/Georg_August_Pritzel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Georg_August_Pritzel/Georg_August_Pritzel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg August Pritzel est un botaniste prussien né le 2 septembre 1815 et décédé le 14 juin 1874 (à 58 ans).
 </t>
@@ -511,7 +523,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Thesaurus litteraturae botanicae omnium Millia operum recensens (1851).
 Iconum Botanicarum index locupletissimus (1855-1866).
@@ -543,7 +557,9 @@
           <t>Honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Pritzelago (es) et l'espèce Crambe pritzelii, deux taxons appartenant à la famille des Brassicaceae, lui sont dédiés.
 </t>
